--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhuLi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C28B7-B97F-4AC6-A6E6-E30BD10F58B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33E0A8-8989-44B7-BC29-83B14032A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25545" yWindow="-22200" windowWidth="24675" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="226">
   <si>
     <t>Dataset</t>
   </si>
@@ -490,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FairSHAP(threshold=0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0512 ± 0.0337</t>
   </si>
   <si>
@@ -541,13 +537,248 @@
   </si>
   <si>
     <t>0.0686 ± 0.0331</t>
+  </si>
+  <si>
+    <t>0.8717 ± 0.0037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1762 ± 0.0135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0722 ± 0.0384</t>
+  </si>
+  <si>
+    <t>0.0384 ± 0.0252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8144 ± 0.0086</t>
+  </si>
+  <si>
+    <t>0.0216 ± 0.0019</t>
+  </si>
+  <si>
+    <t>0.0311 ± 0.0048</t>
+  </si>
+  <si>
+    <t>0.0226 ± 0.0143</t>
+  </si>
+  <si>
+    <t>0.0004 ± 0.0003</t>
+  </si>
+  <si>
+    <t>0.0004 ± 0.0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0796 ± 0.0061</t>
+  </si>
+  <si>
+    <t>0.0769 ± 0.0015</t>
+  </si>
+  <si>
+    <t>0.0340 ± 0.007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9380 ± 0.0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0220 ± 0.0176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FairSHAP-NN (threshold=0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FairSHAP-OT (threshold=0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.671 ± 0.0442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0371 ± 0.0131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0532 ± 0.0243</t>
+  </si>
+  <si>
+    <t>0.1084 ± 0.0459</t>
+  </si>
+  <si>
+    <t>0.1424 ± 0.0707</t>
+  </si>
+  <si>
+    <t>0.6594 ± 0.0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0745 ± 0.0063</t>
+  </si>
+  <si>
+    <t>0.1442 ± 0.0235</t>
+  </si>
+  <si>
+    <t>0.1168 ± 0.0154</t>
+  </si>
+  <si>
+    <t>0.051 ± 0.0426</t>
+  </si>
+  <si>
+    <t>0.6618 ± 0.0088</t>
+  </si>
+  <si>
+    <t>0.0644 ± 0.0081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2238 ± 0.0153</t>
+  </si>
+  <si>
+    <t>0.2142 ± 0.0406</t>
+  </si>
+  <si>
+    <t>0.0467 ± 0.0319</t>
+  </si>
+  <si>
+    <t>0.8725 ± 0.0025</t>
+  </si>
+  <si>
+    <t>0.07 ± 0.0116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.179 ± 0.0091</t>
+  </si>
+  <si>
+    <t>0.0696 ± 0.0356</t>
+  </si>
+  <si>
+    <t>0.0264 ± 0.028</t>
+  </si>
+  <si>
+    <t>654.8 ± 164.8475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modification num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8168 ± 0.0071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0216 ± 0.0043</t>
+  </si>
+  <si>
+    <t>0.0318 ± 0.0096</t>
+  </si>
+  <si>
+    <t>0.0359 ± 0.0162</t>
+  </si>
+  <si>
+    <t>0.0211 ± 0.012</t>
+  </si>
+  <si>
+    <t>498.25 ± 54.9992</t>
+  </si>
+  <si>
+    <t>0.937 ± 0.0019</t>
+  </si>
+  <si>
+    <t>0.0771 ± 0.0019</t>
+  </si>
+  <si>
+    <t>0.0009 ± 0.0005</t>
+  </si>
+  <si>
+    <t>0.0008 ± 0.0003</t>
+  </si>
+  <si>
+    <t>0.0792 ± 0.0071</t>
+  </si>
+  <si>
+    <t>1610.2000 ± 96.3315</t>
+  </si>
+  <si>
+    <t>6752.0000 ± 275.3812</t>
+  </si>
+  <si>
+    <t>3536.8000 ± 307.4055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22395.6000 ± 3903.6439</t>
+  </si>
+  <si>
+    <t>160096.2000 ± 4049.9384</t>
+  </si>
+  <si>
+    <t>14505.2000 ± 457.8744</t>
+  </si>
+  <si>
+    <t>20000.0000 ± 0.0000</t>
+  </si>
+  <si>
+    <t>95317.0000 ± 2285.0338</t>
+  </si>
+  <si>
+    <t>59887.6000 ± 1454.7223</t>
+  </si>
+  <si>
+    <t>2729914.4000 ± 10461.2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2126400.0000 ± 11757.5508</t>
+  </si>
+  <si>
+    <t>11315036.4000 ± 18458.2956</t>
+  </si>
+  <si>
+    <t>521.8 ± 135.4112</t>
+  </si>
+  <si>
+    <t>564.6 ± 89.4695</t>
+  </si>
+  <si>
+    <t>54.2 ± 29.4822</t>
+  </si>
+  <si>
+    <t>99.2 ± 31.7049</t>
+  </si>
+  <si>
+    <t>125.2 ± 41.9905</t>
+  </si>
+  <si>
+    <t>472.8 ± 123.0658</t>
+  </si>
+  <si>
+    <t>399.2 ± 61.0303</t>
+  </si>
+  <si>
+    <t>612.6 ± 139.2275</t>
+  </si>
+  <si>
+    <t>630.6 ± 69.1542</t>
+  </si>
+  <si>
+    <t>92.2 ± 35.8497</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,13 +799,6 @@
       <color rgb="FFFF5792"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -615,6 +839,82 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0095A8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B368"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF5842FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF8CA6A6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF3399"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF33CCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -636,15 +936,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -662,14 +962,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,6 +1007,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB2B2B2"/>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -951,21 +1288,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,675 +1329,948 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="I3" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="I4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="1" t="s">
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="1" t="s">
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1" t="s">
+      <c r="D28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="1" t="s">
+      <c r="D32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1" t="s">
+      <c r="D33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
+      <c r="D34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
